--- a/evan propst sizes.xlsx
+++ b/evan propst sizes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darthvader/propst/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33286311-A9B4-514C-9A4D-30AA523EA172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBFDAED-A626-EA41-BC84-C42806FD9918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="24240" windowHeight="17640" xr2:uid="{DB1D180A-9371-4D8C-8C9E-C7868F6212DF}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="24240" windowHeight="17640" activeTab="5" xr2:uid="{DB1D180A-9371-4D8C-8C9E-C7868F6212DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Portex uncuffed" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="10">
   <si>
     <t>Age (m)</t>
   </si>
@@ -447,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309DBED1-F79B-4595-9619-632E2B9331E8}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H10"/>
     </sheetView>
   </sheetViews>
@@ -706,176 +706,243 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E4FFFD-C615-4EC5-AAA1-DE9D2C73DA2A}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
       <c r="B2" s="4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C2" s="4">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E2" s="4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G2" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H2" s="4">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4">
         <v>5.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
+      <c r="B4">
+        <v>26</v>
+      </c>
       <c r="C4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
       <c r="C5">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B6">
+        <v>56</v>
+      </c>
       <c r="C6">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
+      <c r="B7">
+        <v>64</v>
+      </c>
       <c r="C7">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
+      <c r="B8">
+        <v>72</v>
+      </c>
       <c r="C8">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F8">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
+      <c r="B9">
+        <v>76</v>
+      </c>
       <c r="C9">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D9">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E9">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G9">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
       <c r="C10">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D10">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E10">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F10">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G10">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H10">
-        <v>21</v>
-      </c>
-      <c r="I10">
         <v>5</v>
       </c>
     </row>
@@ -886,197 +953,246 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D811ADDA-80F4-4632-BEC7-5EB247EC8FD9}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
       <c r="B2" s="4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C2" s="4">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E2" s="4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G2" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H2" s="4">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4">
         <v>5.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3">
+      <c r="B3">
         <v>16</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
+      <c r="B4">
+        <v>41</v>
+      </c>
       <c r="C4">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
+      <c r="B5">
+        <v>56</v>
+      </c>
       <c r="C5">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B6">
+        <v>65</v>
+      </c>
       <c r="C6">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
+      <c r="B7">
+        <v>72</v>
+      </c>
       <c r="C7">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D7">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E7">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F7">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
+      <c r="B8">
+        <v>78</v>
+      </c>
       <c r="C8">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F8">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="H8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
+      <c r="B9">
+        <v>81</v>
+      </c>
       <c r="C9">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D9">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F9">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H9">
-        <v>22</v>
-      </c>
-      <c r="I9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
+      <c r="B10">
+        <v>84</v>
+      </c>
       <c r="C10">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D10">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E10">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F10">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G10">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H10">
-        <v>33</v>
-      </c>
-      <c r="I10">
         <v>21</v>
       </c>
     </row>
@@ -1090,7 +1206,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="A1:J15"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1139,12 +1255,27 @@
       <c r="B3">
         <v>35</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1159,6 +1290,21 @@
       <c r="D4">
         <v>5</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1176,6 +1322,18 @@
       <c r="E5">
         <v>4</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -1196,6 +1354,15 @@
       <c r="F6">
         <v>4</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1216,6 +1383,15 @@
       <c r="F7">
         <v>21</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1241,6 +1417,9 @@
       </c>
       <c r="H8">
         <v>6</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1311,7 +1490,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="A1:I10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1357,12 +1536,27 @@
       <c r="B3">
         <v>35</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1374,6 +1568,24 @@
       <c r="C4">
         <v>30</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1391,6 +1603,18 @@
       <c r="E5">
         <v>4</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -1408,6 +1632,18 @@
       <c r="E6">
         <v>23</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1428,6 +1664,15 @@
       <c r="F7">
         <v>18</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1453,6 +1698,9 @@
       </c>
       <c r="H8">
         <v>3</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1520,183 +1768,251 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5909F3C-1808-44F3-9B10-18BB31AE9C52}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
       <c r="B2" s="4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C2" s="4">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E2" s="4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G2" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H2" s="4">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4">
         <v>5.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
       <c r="C4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
       <c r="C5">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B6">
+        <v>59</v>
+      </c>
       <c r="C6">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
+      <c r="B7">
+        <v>66</v>
+      </c>
       <c r="C7">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
+      <c r="B8">
+        <v>74</v>
+      </c>
       <c r="C8">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D8">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
+      <c r="B9">
+        <v>78</v>
+      </c>
       <c r="C9">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D9">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E9">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H9">
-        <v>18</v>
-      </c>
-      <c r="I9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
+      <c r="B10">
+        <v>81</v>
+      </c>
       <c r="C10">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D10">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E10">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F10">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G10">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>29</v>
-      </c>
-      <c r="I10">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L29" s="5"/>
+    <row r="29" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/evan propst sizes.xlsx
+++ b/evan propst sizes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darthvader/propst/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBFDAED-A626-EA41-BC84-C42806FD9918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3327B99C-ACFF-E648-8CB7-17A97C746A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="24240" windowHeight="17640" activeTab="5" xr2:uid="{DB1D180A-9371-4D8C-8C9E-C7868F6212DF}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="24240" windowHeight="17640" xr2:uid="{DB1D180A-9371-4D8C-8C9E-C7868F6212DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Portex uncuffed" sheetId="1" r:id="rId1"/>
@@ -67,10 +67,10 @@
     <t>Tube size (ID) with percentage obstruction</t>
   </si>
   <si>
-    <t>premature 2.5</t>
+    <t>premature (expected ID 2.5)</t>
   </si>
   <si>
-    <t>premature 3.0</t>
+    <t>premature (expected ID 3.0)</t>
   </si>
 </sst>
 </file>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309DBED1-F79B-4595-9619-632E2B9331E8}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -517,7 +517,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
@@ -709,7 +709,7 @@
   <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -765,7 +765,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
@@ -956,7 +956,7 @@
   <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1015,7 +1015,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1278,7 +1278,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
@@ -1490,7 +1490,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1559,7 +1559,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
@@ -1770,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5909F3C-1808-44F3-9B10-18BB31AE9C52}">
   <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1830,7 +1830,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
